--- a/plots/maps/geo_stats/museumsall_in_country_by_governance_simpl.xlsx
+++ b/plots/maps/geo_stats/museumsall_in_country_by_governance_simpl.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2174</v>
+        <v>2311</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
